--- a/data/trans_dic/IP1021_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1021_2023-Estudios-trans_dic.xlsx
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,61</t>
+          <t>0,0; 9,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0,0; 3,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,64</t>
+          <t>0,35; 5,8</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,27</t>
+          <t>0,53; 2,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,3</t>
+          <t>1,16; 3,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,39</t>
+          <t>0,97; 2,37</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,62</t>
+          <t>0,91; 5,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,16</t>
+          <t>1,03; 5,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,56</t>
+          <t>1,28; 4,44</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,72</t>
+          <t>0,97; 2,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,1</t>
+          <t>1,3; 3,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,46</t>
+          <t>1,29; 2,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1021_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1021_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 10,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,33; 6,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,53%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,94</t>
+          <t>1,15; 3,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,7</t>
+          <t>0,54; 2,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,8</t>
+          <t>0,95; 2,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,31</t>
+          <t>0,95; 4,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,33</t>
+          <t>1,04; 6,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,37</t>
+          <t>1,33; 4,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -729,81 +729,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,43</t>
+          <t>1,25; 3,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,45</t>
+          <t>0,99; 2,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,44</t>
+          <t>1,25; 2,57</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 2,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 3,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 2,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
